--- a/notebooks/SOSNEP03Log.xlsx
+++ b/notebooks/SOSNEP03Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwoody\repos\dataexposed\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwoody\Documents\GitHub\dataexposed\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E5097B-256F-4A5C-ADE6-8A5DAFF1955E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7905367E-521A-4C80-81C2-706224FE7818}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" xr2:uid="{57693604-DAE7-4F94-B22E-720188771988}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57693604-DAE7-4F94-B22E-720188771988}"/>
   </bookViews>
   <sheets>
     <sheet name="Logitsitc Regression Example" sheetId="1" r:id="rId1"/>
@@ -642,53 +642,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CE8605-2BE9-4DDA-B653-BB16FFD83AE1}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>0</v>
       </c>
@@ -744,7 +744,7 @@
         <v>-0.81428392096343549</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -774,7 +774,7 @@
         <v>-1.2037997836595171</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>0</v>
       </c>
@@ -804,7 +804,7 @@
         <v>-0.98158114236394245</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>1</v>
       </c>
@@ -834,7 +834,7 @@
         <v>-9.5933109622185053E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>1</v>
       </c>
@@ -864,7 +864,7 @@
         <v>-0.84310780762578463</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>0</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-0.32421153338473163</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>0</v>
       </c>
@@ -924,7 +924,7 @@
         <v>-3.1289018365023437E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>1</v>
       </c>
@@ -954,7 +954,7 @@
         <v>-0.610590276968767</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>1</v>
       </c>
@@ -984,7 +984,7 @@
         <v>-0.4083099677496973</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>0</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>-0.49294167641732856</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>1</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>-4.3369592057429631E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>0</v>
       </c>
@@ -1074,13 +1074,13 @@
         <v>-0.21872095231677122</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21" s="1">
         <f>SUM(I9:I20)</f>
         <v>-5.9427663499829606</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>6</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>3.6811928092912654</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>0.1128267665964109</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>-0.39568299687151604</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>9</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>-0.6795395271792618</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1129,19 +1129,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C28" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" s="7">
         <f>(C22+C23*B28-C24*C28-C25*D28)/(1+C22+C23*B28-C24*C28-C25*D28)</f>
-        <v>0.91104150338084389</v>
+        <v>0.91149972691906522</v>
       </c>
     </row>
   </sheetData>
